--- a/서비스 목록/ournotes_서비스목록_20180820.xlsx
+++ b/서비스 목록/ournotes_서비스목록_20180820.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9804"/>
+    <workbookView windowWidth="22943" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>공통 여부</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>화면 로딩</t>
-  </si>
-  <si>
-    <t>/common/code/</t>
   </si>
   <si>
     <t>N</t>
@@ -77,8 +74,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,25 +108,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,13 +139,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -170,9 +162,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +208,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -203,39 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +478,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -510,30 +496,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -576,12 +553,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,130 +596,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1094,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1143,9 +1140,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1168,10 +1163,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1198,10 +1193,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1228,10 +1223,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1258,10 +1253,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1288,10 +1283,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1318,10 +1313,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1348,10 +1343,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1378,10 +1373,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>

--- a/서비스 목록/ournotes_서비스목록_20180820.xlsx
+++ b/서비스 목록/ournotes_서비스목록_20180820.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>공통 여부</t>
   </si>
@@ -25,10 +28,7 @@
     <t>요청 시점</t>
   </si>
   <si>
-    <t>HTTP Method</t>
-  </si>
-  <si>
-    <t>서비스 URI</t>
+    <t>서비스명</t>
   </si>
   <si>
     <t>Y</t>
@@ -37,7 +37,16 @@
     <t>X</t>
   </si>
   <si>
-    <t>화면 로딩</t>
+    <t>초기로딩</t>
+  </si>
+  <si>
+    <t>공통코드 조회</t>
+  </si>
+  <si>
+    <t>로그아웃 버튼 클릭 또는 동작없이 15분 경과 시</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
   </si>
   <si>
     <t>N</t>
@@ -46,25 +55,127 @@
     <t>Main</t>
   </si>
   <si>
+    <t>Login 버튼 클릭</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>검색 버튼 클릭</t>
+  </si>
+  <si>
+    <t>제목 또는 본문 기준 조회</t>
+  </si>
+  <si>
+    <t>Small talk 게시물 클릭</t>
+  </si>
+  <si>
+    <t>Small talk 게시물 1건 상세 조회</t>
+  </si>
+  <si>
     <t>Register</t>
   </si>
   <si>
+    <t>Submit 버튼 클릭</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>공통코드 조회 (SEX)</t>
+  </si>
+  <si>
     <t>Find user</t>
   </si>
   <si>
+    <t>Find 버튼 클릭</t>
+  </si>
+  <si>
+    <t>핸드폰번호와 이름으로 이메일 조회</t>
+  </si>
+  <si>
+    <t>Transmit 버튼 클릭</t>
+  </si>
+  <si>
+    <t>입력한 이메일로 비밀번호 전송</t>
+  </si>
+  <si>
     <t>Free talk</t>
   </si>
   <si>
+    <t>Free talk 게시물 클릭</t>
+  </si>
+  <si>
+    <t>Free talk 게시물 1건 상세 조회</t>
+  </si>
+  <si>
+    <t>그리드 검색 버튼 클릭</t>
+  </si>
+  <si>
+    <t>검색 조건을 선택 후 조회</t>
+  </si>
+  <si>
     <t>Free talk detail</t>
   </si>
   <si>
+    <t>Free talk 게시물 1건 등록</t>
+  </si>
+  <si>
+    <t>Modify 버튼 클릭</t>
+  </si>
+  <si>
+    <t>Free talk 게시물 1건 수정</t>
+  </si>
+  <si>
+    <t>Delete 버튼 클릭</t>
+  </si>
+  <si>
+    <t>Free talk 게시물 1건 삭제</t>
+  </si>
+  <si>
+    <t>공통코드 조회(BOARD_CATEGORY)</t>
+  </si>
+  <si>
     <t>Small talk</t>
   </si>
   <si>
+    <t>삭제 버튼 클릭</t>
+  </si>
+  <si>
+    <t>선택한 Small talk 게시물 N건 삭제</t>
+  </si>
+  <si>
     <t>Small talk detail</t>
   </si>
   <si>
+    <t>Small talk 게시물 1건 등록</t>
+  </si>
+  <si>
+    <t>Small talk 게시물 1건 수정</t>
+  </si>
+  <si>
+    <t>Small talk 게시물 1건 삭제</t>
+  </si>
+  <si>
+    <t>공통코드 조회(VISIBILITY)</t>
+  </si>
+  <si>
     <t>Comments area</t>
+  </si>
+  <si>
+    <t>등록 버튼 클릭</t>
+  </si>
+  <si>
+    <t>댓글 1건 등록</t>
+  </si>
+  <si>
+    <t>수정 버튼 클릭</t>
+  </si>
+  <si>
+    <t>댓글 1건 수정</t>
+  </si>
+  <si>
+    <t>댓글 1건 삭제</t>
   </si>
 </sst>
 </file>
@@ -72,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,7 +213,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,15 +250,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,22 +275,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,24 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +348,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -253,25 +364,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,157 +514,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +596,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,6 +616,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,28 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,15 +689,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,130 +707,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,22 +1202,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.8888888888889" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1119,430 +1229,620 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/서비스 목록/ournotes_서비스목록_20180820.xlsx
+++ b/서비스 목록/ournotes_서비스목록_20180820.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>공통 여부</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>서비스명</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Y</t>
@@ -1205,7 +1211,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1214,6 +1220,8 @@
     <col min="2" max="2" width="15.1111111111111" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.8888888888889" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.8888888888889" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.037037037037" customWidth="1"/>
+    <col min="6" max="6" width="34.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1229,24 +1237,28 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1258,10 +1270,10 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1282,16 +1294,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1303,10 +1315,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1318,10 +1330,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1342,16 +1354,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1363,10 +1375,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1387,16 +1399,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1408,10 +1420,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1432,16 +1444,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1453,10 +1465,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1468,10 +1480,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1492,16 +1504,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -1513,10 +1525,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1528,10 +1540,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1543,10 +1555,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1567,16 +1579,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1588,10 +1600,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1612,16 +1624,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1633,10 +1645,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1648,10 +1660,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1663,10 +1675,10 @@
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1687,16 +1699,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -1708,10 +1720,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1723,10 +1735,10 @@
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>

--- a/서비스 목록/ournotes_서비스목록_20180820.xlsx
+++ b/서비스 목록/ournotes_서비스목록_20180820.xlsx
@@ -233,6 +233,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -255,6 +263,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -272,10 +311,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,61 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +340,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -370,61 +370,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,121 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,24 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,10 +610,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -652,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -663,6 +652,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,130 +713,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
